--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M537"/>
+  <dimension ref="A1:M527"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B215" workbookViewId="0">
       <selection activeCell="B235" sqref="B235:G448"/>
@@ -2880,15 +2880,91 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="B414" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdraw_box</t>
+        </is>
+      </c>
+      <c r="C414" s="0" t="inlineStr">
+        <is>
+          <t>draw_box</t>
+        </is>
+      </c>
+      <c r="D414" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E414" s="0" t="inlineStr">
+        <is>
+          <t>draw_box@draw_box.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdraw_banner</t>
+        </is>
+      </c>
+      <c r="C415" s="0" t="inlineStr">
+        <is>
+          <t>draw_banner</t>
+        </is>
+      </c>
+      <c r="D415" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E415" s="0" t="inlineStr">
+        <is>
+          <t>draw_banner@draw_box.xlsx</t>
+        </is>
+      </c>
+      <c r="G415" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdrop</t>
+        </is>
+      </c>
+      <c r="C424" s="0" t="inlineStr">
+        <is>
+          <t>drop</t>
+        </is>
+      </c>
+      <c r="D424" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E424" s="0" t="inlineStr">
+        <is>
+          <t>drop@drop.xlsx</t>
+        </is>
+      </c>
+      <c r="G424" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
     <row r="434">
       <c r="B434" s="0" t="inlineStr">
         <is>
-          <t>config.Tbdraw_box</t>
+          <t>config.Tbequip_data</t>
         </is>
       </c>
       <c r="C434" s="0" t="inlineStr">
         <is>
-          <t>draw_box</t>
+          <t>equip_data</t>
         </is>
       </c>
       <c r="D434" s="0" t="inlineStr">
@@ -2898,19 +2974,19 @@
       </c>
       <c r="E434" s="0" t="inlineStr">
         <is>
-          <t>draw_box@draw_box.xlsx</t>
+          <t>equip_data@equip.xlsx</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="B435" s="0" t="inlineStr">
         <is>
-          <t>config.Tbdraw_banner</t>
+          <t>config.Tbequip_level</t>
         </is>
       </c>
       <c r="C435" s="0" t="inlineStr">
         <is>
-          <t>draw_banner</t>
+          <t>equip_level</t>
         </is>
       </c>
       <c r="D435" s="0" t="inlineStr">
@@ -2920,24 +2996,63 @@
       </c>
       <c r="E435" s="0" t="inlineStr">
         <is>
-          <t>draw_banner@draw_box.xlsx</t>
-        </is>
-      </c>
-      <c r="G435" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
+          <t>equip_level@equip.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbequip_pos</t>
+        </is>
+      </c>
+      <c r="C436" s="0" t="inlineStr">
+        <is>
+          <t>equip_pos</t>
+        </is>
+      </c>
+      <c r="D436" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E436" s="0" t="inlineStr">
+        <is>
+          <t>equip_pos@equip.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbequip_quality</t>
+        </is>
+      </c>
+      <c r="C437" s="0" t="inlineStr">
+        <is>
+          <t>equip_quality</t>
+        </is>
+      </c>
+      <c r="D437" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E437" s="0" t="inlineStr">
+        <is>
+          <t>equip_quality@equip.xlsx</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="B444" s="0" t="inlineStr">
         <is>
-          <t>config.Tbdrop</t>
+          <t>config.Tbgift</t>
         </is>
       </c>
       <c r="C444" s="0" t="inlineStr">
         <is>
-          <t>drop</t>
+          <t>gift</t>
         </is>
       </c>
       <c r="D444" s="0" t="inlineStr">
@@ -2947,24 +3062,41 @@
       </c>
       <c r="E444" s="0" t="inlineStr">
         <is>
-          <t>drop@drop.xlsx</t>
-        </is>
-      </c>
-      <c r="G444" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
+          <t>gift@gift.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="B445" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbgift_group</t>
+        </is>
+      </c>
+      <c r="C445" s="0" t="inlineStr">
+        <is>
+          <t>gift_group</t>
+        </is>
+      </c>
+      <c r="D445" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E445" s="0" t="inlineStr">
+        <is>
+          <t>gift_group@gift.xlsx</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="B454" s="0" t="inlineStr">
         <is>
-          <t>config.Tbequip_data</t>
+          <t>config.Tbitem</t>
         </is>
       </c>
       <c r="C454" s="0" t="inlineStr">
         <is>
-          <t>equip_data</t>
+          <t>item</t>
         </is>
       </c>
       <c r="D454" s="0" t="inlineStr">
@@ -2974,85 +3106,19 @@
       </c>
       <c r="E454" s="0" t="inlineStr">
         <is>
-          <t>equip_data@equip.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="B455" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbequip_level</t>
-        </is>
-      </c>
-      <c r="C455" s="0" t="inlineStr">
-        <is>
-          <t>equip_level</t>
-        </is>
-      </c>
-      <c r="D455" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E455" s="0" t="inlineStr">
-        <is>
-          <t>equip_level@equip.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="B456" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbequip_pos</t>
-        </is>
-      </c>
-      <c r="C456" s="0" t="inlineStr">
-        <is>
-          <t>equip_pos</t>
-        </is>
-      </c>
-      <c r="D456" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E456" s="0" t="inlineStr">
-        <is>
-          <t>equip_pos@equip.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="B457" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbequip_quality</t>
-        </is>
-      </c>
-      <c r="C457" s="0" t="inlineStr">
-        <is>
-          <t>equip_quality</t>
-        </is>
-      </c>
-      <c r="D457" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E457" s="0" t="inlineStr">
-        <is>
-          <t>equip_quality@equip.xlsx</t>
+          <t>item@item.xlsx</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="B464" s="0" t="inlineStr">
         <is>
-          <t>config.Tbgift</t>
+          <t>config.Tbshop_daily</t>
         </is>
       </c>
       <c r="C464" s="0" t="inlineStr">
         <is>
-          <t>gift</t>
+          <t>shop_daily</t>
         </is>
       </c>
       <c r="D464" s="0" t="inlineStr">
@@ -3062,19 +3128,19 @@
       </c>
       <c r="E464" s="0" t="inlineStr">
         <is>
-          <t>gift@gift.xlsx</t>
+          <t>shop_daily@shopOld.xlsx</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="B465" s="0" t="inlineStr">
         <is>
-          <t>config.Tbgift_group</t>
+          <t>config.Tbfund</t>
         </is>
       </c>
       <c r="C465" s="0" t="inlineStr">
         <is>
-          <t>gift_group</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="D465" s="0" t="inlineStr">
@@ -3084,19 +3150,178 @@
       </c>
       <c r="E465" s="0" t="inlineStr">
         <is>
-          <t>gift_group@gift.xlsx</t>
+          <t>fund@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbfund_reward</t>
+        </is>
+      </c>
+      <c r="C466" s="0" t="inlineStr">
+        <is>
+          <t>fund_reward</t>
+        </is>
+      </c>
+      <c r="D466" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E466" s="0" t="inlineStr">
+        <is>
+          <t>fund_reward@shopOld.xlsx</t>
+        </is>
+      </c>
+      <c r="G466" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbrecharge</t>
+        </is>
+      </c>
+      <c r="C467" s="0" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="D467" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E467" s="0" t="inlineStr">
+        <is>
+          <t>recharge@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbprice</t>
+        </is>
+      </c>
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="D468" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E468" s="0" t="inlineStr">
+        <is>
+          <t>price@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbspecials</t>
+        </is>
+      </c>
+      <c r="C469" s="0" t="inlineStr">
+        <is>
+          <t>specials</t>
+        </is>
+      </c>
+      <c r="D469" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E469" s="0" t="inlineStr">
+        <is>
+          <t>specials@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbfr</t>
+        </is>
+      </c>
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="D470" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E470" s="0" t="inlineStr">
+        <is>
+          <t>fr@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonthly</t>
+        </is>
+      </c>
+      <c r="C471" s="0" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D471" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E471" s="0" t="inlineStr">
+        <is>
+          <t>monthly@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbgoods</t>
+        </is>
+      </c>
+      <c r="C472" s="0" t="inlineStr">
+        <is>
+          <t>goods</t>
+        </is>
+      </c>
+      <c r="D472" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E472" s="0" t="inlineStr">
+        <is>
+          <t>goods@shopOld.xlsx</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="B474" s="0" t="inlineStr">
         <is>
-          <t>config.Tbitem</t>
+          <t>config.TbmonthCard</t>
         </is>
       </c>
       <c r="C474" s="0" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>monthCard</t>
         </is>
       </c>
       <c r="D474" s="0" t="inlineStr">
@@ -3106,19 +3331,19 @@
       </c>
       <c r="E474" s="0" t="inlineStr">
         <is>
-          <t>item@item.xlsx</t>
+          <t>monthCard@shop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="B484" s="0" t="inlineStr">
         <is>
-          <t>config.Tbshop_daily</t>
+          <t>config.Tbachieve</t>
         </is>
       </c>
       <c r="C484" s="0" t="inlineStr">
         <is>
-          <t>shop_daily</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="D484" s="0" t="inlineStr">
@@ -3128,19 +3353,19 @@
       </c>
       <c r="E484" s="0" t="inlineStr">
         <is>
-          <t>shop_daily@shop.xlsx</t>
+          <t>achieve@achieve.xlsx</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="B485" s="0" t="inlineStr">
         <is>
-          <t>config.Tbfund</t>
+          <t>config.Tbachieve_group</t>
         </is>
       </c>
       <c r="C485" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>achieve_group</t>
         </is>
       </c>
       <c r="D485" s="0" t="inlineStr">
@@ -3150,178 +3375,19 @@
       </c>
       <c r="E485" s="0" t="inlineStr">
         <is>
-          <t>fund@shop.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="B486" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbfund_reward</t>
-        </is>
-      </c>
-      <c r="C486" s="0" t="inlineStr">
-        <is>
-          <t>fund_reward</t>
-        </is>
-      </c>
-      <c r="D486" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E486" s="0" t="inlineStr">
-        <is>
-          <t>fund_reward@shop.xlsx</t>
-        </is>
-      </c>
-      <c r="G486" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="B487" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbrecharge</t>
-        </is>
-      </c>
-      <c r="C487" s="0" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="D487" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E487" s="0" t="inlineStr">
-        <is>
-          <t>recharge@shop.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="B488" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbprice</t>
-        </is>
-      </c>
-      <c r="C488" s="0" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D488" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E488" s="0" t="inlineStr">
-        <is>
-          <t>price@shop.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="B489" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbspecials</t>
-        </is>
-      </c>
-      <c r="C489" s="0" t="inlineStr">
-        <is>
-          <t>specials</t>
-        </is>
-      </c>
-      <c r="D489" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E489" s="0" t="inlineStr">
-        <is>
-          <t>specials@shop.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="B490" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbfr</t>
-        </is>
-      </c>
-      <c r="C490" s="0" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="D490" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E490" s="0" t="inlineStr">
-        <is>
-          <t>fr@shop.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="B491" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbmonthly</t>
-        </is>
-      </c>
-      <c r="C491" s="0" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="D491" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E491" s="0" t="inlineStr">
-        <is>
-          <t>monthly@shop.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="B492" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbgoods</t>
-        </is>
-      </c>
-      <c r="C492" s="0" t="inlineStr">
-        <is>
-          <t>goods</t>
-        </is>
-      </c>
-      <c r="D492" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E492" s="0" t="inlineStr">
-        <is>
-          <t>goods@shop.xlsx</t>
+          <t>achieve_group@achieve.xlsx</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="B494" s="0" t="inlineStr">
         <is>
-          <t>config.Tbachieve</t>
+          <t>config.Tbchallenge</t>
         </is>
       </c>
       <c r="C494" s="0" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="D494" s="0" t="inlineStr">
@@ -3331,41 +3397,19 @@
       </c>
       <c r="E494" s="0" t="inlineStr">
         <is>
-          <t>achieve@achieve.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="B495" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbachieve_group</t>
-        </is>
-      </c>
-      <c r="C495" s="0" t="inlineStr">
-        <is>
-          <t>achieve_group</t>
-        </is>
-      </c>
-      <c r="D495" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E495" s="0" t="inlineStr">
-        <is>
-          <t>achieve_group@achieve.xlsx</t>
+          <t>challenge@challenge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="B504" s="0" t="inlineStr">
         <is>
-          <t>config.Tbchallenge</t>
+          <t>config.Tbchapter</t>
         </is>
       </c>
       <c r="C504" s="0" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>chapter</t>
         </is>
       </c>
       <c r="D504" s="0" t="inlineStr">
@@ -3375,19 +3419,63 @@
       </c>
       <c r="E504" s="0" t="inlineStr">
         <is>
-          <t>challenge@challenge.xlsx</t>
+          <t>chapter@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbchapter_box</t>
+        </is>
+      </c>
+      <c r="C505" s="0" t="inlineStr">
+        <is>
+          <t>chapter_box</t>
+        </is>
+      </c>
+      <c r="D505" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E505" s="0" t="inlineStr">
+        <is>
+          <t>chapter_box@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsweep_times</t>
+        </is>
+      </c>
+      <c r="C506" s="0" t="inlineStr">
+        <is>
+          <t>sweep_times</t>
+        </is>
+      </c>
+      <c r="D506" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E506" s="0" t="inlineStr">
+        <is>
+          <t>sweep_times@chapter.xlsx</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="B514" s="0" t="inlineStr">
         <is>
-          <t>config.Tbchapter</t>
+          <t>config.Tbsign_daily</t>
         </is>
       </c>
       <c r="C514" s="0" t="inlineStr">
         <is>
-          <t>chapter</t>
+          <t>sign_daily</t>
         </is>
       </c>
       <c r="D514" s="0" t="inlineStr">
@@ -3397,19 +3485,19 @@
       </c>
       <c r="E514" s="0" t="inlineStr">
         <is>
-          <t>chapter@chapter.xlsx</t>
+          <t>sign_daily@sign.xlsx</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="B515" s="0" t="inlineStr">
         <is>
-          <t>config.Tbchapter_box</t>
+          <t>config.Tbsign_acc</t>
         </is>
       </c>
       <c r="C515" s="0" t="inlineStr">
         <is>
-          <t>chapter_box</t>
+          <t>sign_acc</t>
         </is>
       </c>
       <c r="D515" s="0" t="inlineStr">
@@ -3419,159 +3507,93 @@
       </c>
       <c r="E515" s="0" t="inlineStr">
         <is>
-          <t>chapter_box@chapter.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="B516" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbsweep_times</t>
-        </is>
-      </c>
-      <c r="C516" s="0" t="inlineStr">
-        <is>
-          <t>sweep_times</t>
-        </is>
-      </c>
-      <c r="D516" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E516" s="0" t="inlineStr">
-        <is>
-          <t>sweep_times@chapter.xlsx</t>
+          <t>sign_acc@sign.xlsx</t>
         </is>
       </c>
     </row>
     <row r="524">
-      <c r="B524" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbsign_daily</t>
-        </is>
-      </c>
-      <c r="C524" s="0" t="inlineStr">
-        <is>
-          <t>sign_daily</t>
-        </is>
-      </c>
-      <c r="D524" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E524" s="0" t="inlineStr">
-        <is>
-          <t>sign_daily@sign.xlsx</t>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>config.Tbtask</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>task@task.xlsx</t>
         </is>
       </c>
     </row>
     <row r="525">
-      <c r="B525" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbsign_acc</t>
-        </is>
-      </c>
-      <c r="C525" s="0" t="inlineStr">
-        <is>
-          <t>sign_acc</t>
-        </is>
-      </c>
-      <c r="D525" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E525" s="0" t="inlineStr">
-        <is>
-          <t>sign_acc@sign.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>config.Tbtask</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>task@task.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="B535" t="inlineStr">
+      <c r="B525" t="inlineStr">
         <is>
           <t>config.Tbtask_type</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr">
+      <c r="C525" t="inlineStr">
         <is>
           <t>task_type</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr">
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
         <is>
           <t>task_type@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="536">
-      <c r="B536" t="inlineStr">
+    <row r="526">
+      <c r="B526" t="inlineStr">
         <is>
           <t>config.Tbtask_group</t>
         </is>
       </c>
-      <c r="C536" t="inlineStr">
+      <c r="C526" t="inlineStr">
         <is>
           <t>task_group</t>
         </is>
       </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
         <is>
           <t>task_group@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="537">
-      <c r="B537" t="inlineStr">
+    <row r="527">
+      <c r="B527" t="inlineStr">
         <is>
           <t>config.Tbtask_score</t>
         </is>
       </c>
-      <c r="C537" t="inlineStr">
+      <c r="C527" t="inlineStr">
         <is>
           <t>task_score</t>
         </is>
       </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
         <is>
           <t>task_score@task.xlsx</t>
         </is>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M527"/>
+  <dimension ref="A1:M537"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B215" workbookViewId="0">
       <selection activeCell="B235" sqref="B235:G448"/>
@@ -3316,12 +3316,12 @@
     <row r="474">
       <c r="B474" s="0" t="inlineStr">
         <is>
-          <t>config.TbmonthCard</t>
+          <t>config.TbItems</t>
         </is>
       </c>
       <c r="C474" s="0" t="inlineStr">
         <is>
-          <t>monthCard</t>
+          <t>Items</t>
         </is>
       </c>
       <c r="D474" s="0" t="inlineStr">
@@ -3331,19 +3331,19 @@
       </c>
       <c r="E474" s="0" t="inlineStr">
         <is>
-          <t>monthCard@shop.xlsx</t>
+          <t>Items@Items.xlsx</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="B484" s="0" t="inlineStr">
         <is>
-          <t>config.Tbachieve</t>
+          <t>config.TbmonthCard</t>
         </is>
       </c>
       <c r="C484" s="0" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>monthCard</t>
         </is>
       </c>
       <c r="D484" s="0" t="inlineStr">
@@ -3353,41 +3353,19 @@
       </c>
       <c r="E484" s="0" t="inlineStr">
         <is>
-          <t>achieve@achieve.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="B485" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbachieve_group</t>
-        </is>
-      </c>
-      <c r="C485" s="0" t="inlineStr">
-        <is>
-          <t>achieve_group</t>
-        </is>
-      </c>
-      <c r="D485" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E485" s="0" t="inlineStr">
-        <is>
-          <t>achieve_group@achieve.xlsx</t>
+          <t>monthCard@shop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="B494" s="0" t="inlineStr">
         <is>
-          <t>config.Tbchallenge</t>
+          <t>config.Tbachieve</t>
         </is>
       </c>
       <c r="C494" s="0" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="D494" s="0" t="inlineStr">
@@ -3397,19 +3375,41 @@
       </c>
       <c r="E494" s="0" t="inlineStr">
         <is>
-          <t>challenge@challenge.xlsx</t>
+          <t>achieve@achieve.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbachieve_group</t>
+        </is>
+      </c>
+      <c r="C495" s="0" t="inlineStr">
+        <is>
+          <t>achieve_group</t>
+        </is>
+      </c>
+      <c r="D495" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E495" s="0" t="inlineStr">
+        <is>
+          <t>achieve_group@achieve.xlsx</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="B504" s="0" t="inlineStr">
         <is>
-          <t>config.Tbchapter</t>
+          <t>config.Tbchallenge</t>
         </is>
       </c>
       <c r="C504" s="0" t="inlineStr">
         <is>
-          <t>chapter</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="D504" s="0" t="inlineStr">
@@ -3419,63 +3419,19 @@
       </c>
       <c r="E504" s="0" t="inlineStr">
         <is>
-          <t>chapter@chapter.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="B505" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbchapter_box</t>
-        </is>
-      </c>
-      <c r="C505" s="0" t="inlineStr">
-        <is>
-          <t>chapter_box</t>
-        </is>
-      </c>
-      <c r="D505" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E505" s="0" t="inlineStr">
-        <is>
-          <t>chapter_box@chapter.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="B506" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbsweep_times</t>
-        </is>
-      </c>
-      <c r="C506" s="0" t="inlineStr">
-        <is>
-          <t>sweep_times</t>
-        </is>
-      </c>
-      <c r="D506" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E506" s="0" t="inlineStr">
-        <is>
-          <t>sweep_times@chapter.xlsx</t>
+          <t>challenge@challenge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="B514" s="0" t="inlineStr">
         <is>
-          <t>config.Tbsign_daily</t>
+          <t>config.Tbchapter</t>
         </is>
       </c>
       <c r="C514" s="0" t="inlineStr">
         <is>
-          <t>sign_daily</t>
+          <t>chapter</t>
         </is>
       </c>
       <c r="D514" s="0" t="inlineStr">
@@ -3485,115 +3441,181 @@
       </c>
       <c r="E514" s="0" t="inlineStr">
         <is>
-          <t>sign_daily@sign.xlsx</t>
+          <t>chapter@chapter.xlsx</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="B515" s="0" t="inlineStr">
         <is>
+          <t>config.Tbchapter_box</t>
+        </is>
+      </c>
+      <c r="C515" s="0" t="inlineStr">
+        <is>
+          <t>chapter_box</t>
+        </is>
+      </c>
+      <c r="D515" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E515" s="0" t="inlineStr">
+        <is>
+          <t>chapter_box@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsweep_times</t>
+        </is>
+      </c>
+      <c r="C516" s="0" t="inlineStr">
+        <is>
+          <t>sweep_times</t>
+        </is>
+      </c>
+      <c r="D516" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E516" s="0" t="inlineStr">
+        <is>
+          <t>sweep_times@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsign_daily</t>
+        </is>
+      </c>
+      <c r="C524" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily</t>
+        </is>
+      </c>
+      <c r="D524" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E524" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily@sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" s="0" t="inlineStr">
+        <is>
           <t>config.Tbsign_acc</t>
         </is>
       </c>
-      <c r="C515" s="0" t="inlineStr">
+      <c r="C525" s="0" t="inlineStr">
         <is>
           <t>sign_acc</t>
         </is>
       </c>
-      <c r="D515" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E515" s="0" t="inlineStr">
+      <c r="D525" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E525" s="0" t="inlineStr">
         <is>
           <t>sign_acc@sign.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="524">
-      <c r="B524" t="inlineStr">
+    <row r="534">
+      <c r="B534" t="inlineStr">
         <is>
           <t>config.Tbtask</t>
         </is>
       </c>
-      <c r="C524" t="inlineStr">
+      <c r="C534" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
         <is>
           <t>task@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="525">
-      <c r="B525" t="inlineStr">
+    <row r="535">
+      <c r="B535" t="inlineStr">
         <is>
           <t>config.Tbtask_type</t>
         </is>
       </c>
-      <c r="C525" t="inlineStr">
+      <c r="C535" t="inlineStr">
         <is>
           <t>task_type</t>
         </is>
       </c>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
         <is>
           <t>task_type@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="526">
-      <c r="B526" t="inlineStr">
+    <row r="536">
+      <c r="B536" t="inlineStr">
         <is>
           <t>config.Tbtask_group</t>
         </is>
       </c>
-      <c r="C526" t="inlineStr">
+      <c r="C536" t="inlineStr">
         <is>
           <t>task_group</t>
         </is>
       </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
         <is>
           <t>task_group@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="527">
-      <c r="B527" t="inlineStr">
+    <row r="537">
+      <c r="B537" t="inlineStr">
         <is>
           <t>config.Tbtask_score</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr">
+      <c r="C537" t="inlineStr">
         <is>
           <t>task_score</t>
         </is>
       </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr">
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
         <is>
           <t>task_score@task.xlsx</t>
         </is>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1144,12 +1144,12 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>config.TbHeroBox</t>
+          <t>config.TbGacha</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HeroBox</t>
+          <t>Gacha</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HeroBox@Shop.xlsx</t>
+          <t>Gacha@Shop.xlsx</t>
         </is>
       </c>
     </row>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M537"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
       <selection activeCell="E487" sqref="A474:E487"/>
@@ -1100,66 +1100,2546 @@
     <row r="4">
       <c r="B4" s="0" t="inlineStr">
         <is>
+          <t>config.Tbattr_self</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>attr_self</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>attr_self_Fixed.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbart</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>art@art.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>config.Tblanguage</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>language@language.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbskill_effectElement</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>skill_effectElement</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>skill_effectElement@skill_effectElement.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbskill_effectNew</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>skill_effectNew</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>skill_effectNew@skill_effectNew.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattle_status</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>battle_status</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>battle_status@skill_effectNew.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbullet</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>bullet</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>bullet@skill_effectNew.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbactivity</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>activity@activity.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattlepass</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>battlepass</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>battlepass@battlepass.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattlepass_exp</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>battlepass_exp</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>battlepass_exp@battlepass.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattlepass_reward</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>battlepass_reward</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>battlepass_reward@battlepass.xlsx</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdays_challenge</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>days_challenge</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>days_challenge@days_challenge.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdays_sign</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>days_sign</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>days_sign@days_sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbenergy_shop</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>energy_shop</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>energy_shop@energy_shop.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbenergy_shop_goods</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>energy_shop_goods</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>energy_shop_goods@energy_shop.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonopoly</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>monopoly</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>monopoly@monopoly.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonopoly_event</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_event</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_event@monopoly.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonopoly_cell</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_cell</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_cell@monopoly.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonopoly_shop</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_shop</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_shop@monopoly.xlsx</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonopoly_event_lotto</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_event_lotto</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>monopoly_event_lotto@monopoly.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbpiggy_bank</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>piggy_bank</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>piggy_bank@piggy_bank.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattleshop_stage</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>battleshop_stage</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>battleshop_stage@battleshop.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattleshop_drop</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>battleshop_drop</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>battleshop_drop@battleshop.xlsx</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattletech</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>battletech</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E134" s="0" t="inlineStr">
+        <is>
+          <t>battletech@battletech.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattletech_drop</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>battletech_drop</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E135" s="0" t="inlineStr">
+        <is>
+          <t>battletech_drop@battletech.xlsx</t>
+        </is>
+      </c>
+      <c r="G135" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattle_constant</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>battle_constant</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E144" s="0" t="inlineStr">
+        <is>
+          <t>battle_constant@battle_constant.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbattr_variable</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>attr_variable</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>attr_variable@battle_data.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattle_item</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>battle_item</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
+        <is>
+          <t>battle_item@battle_data.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbbattle_drop</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>battle_drop</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E156" s="0" t="inlineStr">
+        <is>
+          <t>battle_drop@battle_data.xlsx</t>
+        </is>
+      </c>
+      <c r="G156" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbelement</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t>element@element.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbelement_effect</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>element_effect</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>element_effect@element.xlsx</t>
+        </is>
+      </c>
+      <c r="G175" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbevent_0</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>event_0</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t>event_0@event.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbanecdote</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>anecdote</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
+        <is>
+          <t>anecdote@event.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbevent_type</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>event_type</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t>event_type@event.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>config.Tblevel</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t>level@level.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>monster</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>monster@monster.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster_attr</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>monster_attr</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t>monster_attr@monster.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster_model</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>monster_model</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t>monster_model@monster.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster_feature</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>monster_feature</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>monster_feature@monster.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster_type</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>monster_type</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>monster_type@monster.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmodule_refresh</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>module_refresh</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t>module_refresh@refresh.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmodule_template</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>module_template</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t>module_template@refresh.xlsx</t>
+        </is>
+      </c>
+      <c r="G215" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster_template</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>monster_template</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>monster_template@refresh.xlsx</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonster_foration</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>monster_foration</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E217" s="0" t="inlineStr">
+        <is>
+          <t>monster_foration@refresh.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbscene</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>scene@scene.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbscene_module</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>scene_module</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t>scene_module@scene.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbenvironment</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E226" s="0" t="inlineStr">
+        <is>
+          <t>environment@scene.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbscene_boss</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>scene_boss</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t>scene_boss@scene.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbskill</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>skill</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t>skill@skill.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbskill_binding</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>skill_binding</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t>skill_binding@skill.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbskill_binding_rank</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>skill_binding_rank</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t>skill_binding_rank@skill.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbskill_quality</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>skill_quality</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t>skill_quality@skill.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbspecial_effect</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>special_effect</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E244" s="0" t="inlineStr">
+        <is>
+          <t>special_effect@special_effects.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbspecial_effect_movement</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>special_effect_movement</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E245" s="0" t="inlineStr">
+        <is>
+          <t>special_effect_movement@special_effects.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbtalent</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E254" s="0" t="inlineStr">
+        <is>
+          <t>talent@talent.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbtalent_level</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>talent_level</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>talent_level@talent.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbweapon</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>weapon</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>weapon@weapon.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbplayer_weapon_index</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>player_weapon_index</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>player_weapon_index@weapon.xlsx</t>
+        </is>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>role_id+weapon_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbannounce</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>announce</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>announce@announce.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbaudio</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>audio</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>audio@audio.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbconstant</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>constant@constant.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>config.Tberrorcode</t>
+        </is>
+      </c>
+      <c r="C304" s="0" t="inlineStr">
+        <is>
+          <t>errorcode</t>
+        </is>
+      </c>
+      <c r="D304" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E304" s="0" t="inlineStr">
+        <is>
+          <t>errorcode@errorcode.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbguide</t>
+        </is>
+      </c>
+      <c r="C314" s="0" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="D314" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E314" s="0" t="inlineStr">
+        <is>
+          <t>guide@guide.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbblock</t>
+        </is>
+      </c>
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="D324" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E324" s="0" t="inlineStr">
+        <is>
+          <t>block@info.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbpower</t>
+        </is>
+      </c>
+      <c r="C325" s="0" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="D325" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E325" s="0" t="inlineStr">
+        <is>
+          <t>power@info.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbracist</t>
+        </is>
+      </c>
+      <c r="C326" s="0" t="inlineStr">
+        <is>
+          <t>racist</t>
+        </is>
+      </c>
+      <c r="D326" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E326" s="0" t="inlineStr">
+        <is>
+          <t>racist@info.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmail</t>
+        </is>
+      </c>
+      <c r="C334" s="0" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="D334" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E334" s="0" t="inlineStr">
+        <is>
+          <t>mail@mail.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbquality</t>
+        </is>
+      </c>
+      <c r="C344" s="0" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D344" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E344" s="0" t="inlineStr">
+        <is>
+          <t>quality@quality.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsetting</t>
+        </is>
+      </c>
+      <c r="C354" s="0" t="inlineStr">
+        <is>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="D354" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E354" s="0" t="inlineStr">
+        <is>
+          <t>setting@setting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsetting_language</t>
+        </is>
+      </c>
+      <c r="C355" s="0" t="inlineStr">
+        <is>
+          <t>setting_language</t>
+        </is>
+      </c>
+      <c r="D355" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E355" s="0" t="inlineStr">
+        <is>
+          <t>setting_language@setting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbshare</t>
+        </is>
+      </c>
+      <c r="C364" s="0" t="inlineStr">
+        <is>
+          <t>share</t>
+        </is>
+      </c>
+      <c r="D364" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E364" s="0" t="inlineStr">
+        <is>
+          <t>share@share.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbfont</t>
+        </is>
+      </c>
+      <c r="C374" s="0" t="inlineStr">
+        <is>
+          <t>font</t>
+        </is>
+      </c>
+      <c r="D374" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E374" s="0" t="inlineStr">
+        <is>
+          <t>font@style.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbtag</t>
+        </is>
+      </c>
+      <c r="C384" s="0" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="D384" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E384" s="0" t="inlineStr">
+        <is>
+          <t>tag@tag.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbtag_func</t>
+        </is>
+      </c>
+      <c r="C385" s="0" t="inlineStr">
+        <is>
+          <t>tag_func</t>
+        </is>
+      </c>
+      <c r="D385" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E385" s="0" t="inlineStr">
+        <is>
+          <t>tag_func@tag.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbthird_party</t>
+        </is>
+      </c>
+      <c r="C394" s="0" t="inlineStr">
+        <is>
+          <t>third_party</t>
+        </is>
+      </c>
+      <c r="D394" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E394" s="0" t="inlineStr">
+        <is>
+          <t>third_party@third_party.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbuser_avatar</t>
+        </is>
+      </c>
+      <c r="C404" s="0" t="inlineStr">
+        <is>
+          <t>user_avatar</t>
+        </is>
+      </c>
+      <c r="D404" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E404" s="0" t="inlineStr">
+        <is>
+          <t>user_avatar@user.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbuser_variable</t>
+        </is>
+      </c>
+      <c r="C405" s="0" t="inlineStr">
+        <is>
+          <t>user_variable</t>
+        </is>
+      </c>
+      <c r="D405" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E405" s="0" t="inlineStr">
+        <is>
+          <t>user_variable@user.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="B406" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbuser_level</t>
+        </is>
+      </c>
+      <c r="C406" s="0" t="inlineStr">
+        <is>
+          <t>user_level</t>
+        </is>
+      </c>
+      <c r="D406" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E406" s="0" t="inlineStr">
+        <is>
+          <t>user_level@user.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbplayer_role</t>
+        </is>
+      </c>
+      <c r="C407" s="0" t="inlineStr">
+        <is>
+          <t>player_role</t>
+        </is>
+      </c>
+      <c r="D407" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E407" s="0" t="inlineStr">
+        <is>
+          <t>player_role@user.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdraw_box</t>
+        </is>
+      </c>
+      <c r="C414" s="0" t="inlineStr">
+        <is>
+          <t>draw_box</t>
+        </is>
+      </c>
+      <c r="D414" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E414" s="0" t="inlineStr">
+        <is>
+          <t>draw_box@draw_box.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdraw_banner</t>
+        </is>
+      </c>
+      <c r="C415" s="0" t="inlineStr">
+        <is>
+          <t>draw_banner</t>
+        </is>
+      </c>
+      <c r="D415" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E415" s="0" t="inlineStr">
+        <is>
+          <t>draw_banner@draw_box.xlsx</t>
+        </is>
+      </c>
+      <c r="G415" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbdrop</t>
+        </is>
+      </c>
+      <c r="C424" s="0" t="inlineStr">
+        <is>
+          <t>drop</t>
+        </is>
+      </c>
+      <c r="D424" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E424" s="0" t="inlineStr">
+        <is>
+          <t>drop@drop.xlsx</t>
+        </is>
+      </c>
+      <c r="G424" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbequip_data</t>
+        </is>
+      </c>
+      <c r="C434" s="0" t="inlineStr">
+        <is>
+          <t>equip_data</t>
+        </is>
+      </c>
+      <c r="D434" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E434" s="0" t="inlineStr">
+        <is>
+          <t>equip_data@equip.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbequip_level</t>
+        </is>
+      </c>
+      <c r="C435" s="0" t="inlineStr">
+        <is>
+          <t>equip_level</t>
+        </is>
+      </c>
+      <c r="D435" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E435" s="0" t="inlineStr">
+        <is>
+          <t>equip_level@equip.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbequip_pos</t>
+        </is>
+      </c>
+      <c r="C436" s="0" t="inlineStr">
+        <is>
+          <t>equip_pos</t>
+        </is>
+      </c>
+      <c r="D436" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E436" s="0" t="inlineStr">
+        <is>
+          <t>equip_pos@equip.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbequip_quality</t>
+        </is>
+      </c>
+      <c r="C437" s="0" t="inlineStr">
+        <is>
+          <t>equip_quality</t>
+        </is>
+      </c>
+      <c r="D437" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E437" s="0" t="inlineStr">
+        <is>
+          <t>equip_quality@equip.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="B444" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbgift</t>
+        </is>
+      </c>
+      <c r="C444" s="0" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="D444" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E444" s="0" t="inlineStr">
+        <is>
+          <t>gift@gift.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="B445" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbgift_group</t>
+        </is>
+      </c>
+      <c r="C445" s="0" t="inlineStr">
+        <is>
+          <t>gift_group</t>
+        </is>
+      </c>
+      <c r="D445" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E445" s="0" t="inlineStr">
+        <is>
+          <t>gift_group@gift.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" s="0" t="inlineStr">
+        <is>
+          <t>config.TbitemOld</t>
+        </is>
+      </c>
+      <c r="C454" s="0" t="inlineStr">
+        <is>
+          <t>itemOld</t>
+        </is>
+      </c>
+      <c r="D454" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E454" s="0" t="inlineStr">
+        <is>
+          <t>itemOld@itemOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbshop_daily</t>
+        </is>
+      </c>
+      <c r="C464" s="0" t="inlineStr">
+        <is>
+          <t>shop_daily</t>
+        </is>
+      </c>
+      <c r="D464" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E464" s="0" t="inlineStr">
+        <is>
+          <t>shop_daily@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbfund</t>
+        </is>
+      </c>
+      <c r="C465" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="D465" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E465" s="0" t="inlineStr">
+        <is>
+          <t>fund@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbfund_reward</t>
+        </is>
+      </c>
+      <c r="C466" s="0" t="inlineStr">
+        <is>
+          <t>fund_reward</t>
+        </is>
+      </c>
+      <c r="D466" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E466" s="0" t="inlineStr">
+        <is>
+          <t>fund_reward@shopOld.xlsx</t>
+        </is>
+      </c>
+      <c r="G466" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbrecharge</t>
+        </is>
+      </c>
+      <c r="C467" s="0" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="D467" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E467" s="0" t="inlineStr">
+        <is>
+          <t>recharge@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbprice</t>
+        </is>
+      </c>
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="D468" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E468" s="0" t="inlineStr">
+        <is>
+          <t>price@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbspecials</t>
+        </is>
+      </c>
+      <c r="C469" s="0" t="inlineStr">
+        <is>
+          <t>specials</t>
+        </is>
+      </c>
+      <c r="D469" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E469" s="0" t="inlineStr">
+        <is>
+          <t>specials@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbfr</t>
+        </is>
+      </c>
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="D470" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E470" s="0" t="inlineStr">
+        <is>
+          <t>fr@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbmonthly</t>
+        </is>
+      </c>
+      <c r="C471" s="0" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D471" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E471" s="0" t="inlineStr">
+        <is>
+          <t>monthly@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbgoods</t>
+        </is>
+      </c>
+      <c r="C472" s="0" t="inlineStr">
+        <is>
+          <t>goods</t>
+        </is>
+      </c>
+      <c r="D472" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E472" s="0" t="inlineStr">
+        <is>
+          <t>goods@shopOld.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" s="0" t="inlineStr">
+        <is>
           <t>config.TbItem</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C474" s="0" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D474" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E474" s="0" t="inlineStr">
         <is>
           <t>Item@Item.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
+    <row r="484">
+      <c r="B484" s="0" t="inlineStr">
         <is>
           <t>config.TbMonthCard</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C484" s="0" t="inlineStr">
         <is>
           <t>MonthCard</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D484" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E484" s="0" t="inlineStr">
         <is>
           <t>MonthCard@Shop.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
+    <row r="485">
+      <c r="B485" s="0" t="inlineStr">
         <is>
           <t>config.TbGacha</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C485" s="0" t="inlineStr">
         <is>
           <t>Gacha</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D485" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E485" s="0" t="inlineStr">
         <is>
           <t>Gacha@Shop.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbachieve</t>
+        </is>
+      </c>
+      <c r="C494" s="0" t="inlineStr">
+        <is>
+          <t>achieve</t>
+        </is>
+      </c>
+      <c r="D494" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E494" s="0" t="inlineStr">
+        <is>
+          <t>achieve@achieve.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbachieve_group</t>
+        </is>
+      </c>
+      <c r="C495" s="0" t="inlineStr">
+        <is>
+          <t>achieve_group</t>
+        </is>
+      </c>
+      <c r="D495" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E495" s="0" t="inlineStr">
+        <is>
+          <t>achieve_group@achieve.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbchallenge</t>
+        </is>
+      </c>
+      <c r="C504" s="0" t="inlineStr">
+        <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="D504" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E504" s="0" t="inlineStr">
+        <is>
+          <t>challenge@challenge.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="B514" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbchapter</t>
+        </is>
+      </c>
+      <c r="C514" s="0" t="inlineStr">
+        <is>
+          <t>chapter</t>
+        </is>
+      </c>
+      <c r="D514" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E514" s="0" t="inlineStr">
+        <is>
+          <t>chapter@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbchapter_box</t>
+        </is>
+      </c>
+      <c r="C515" s="0" t="inlineStr">
+        <is>
+          <t>chapter_box</t>
+        </is>
+      </c>
+      <c r="D515" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E515" s="0" t="inlineStr">
+        <is>
+          <t>chapter_box@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsweep_times</t>
+        </is>
+      </c>
+      <c r="C516" s="0" t="inlineStr">
+        <is>
+          <t>sweep_times</t>
+        </is>
+      </c>
+      <c r="D516" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E516" s="0" t="inlineStr">
+        <is>
+          <t>sweep_times@chapter.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsign_daily</t>
+        </is>
+      </c>
+      <c r="C524" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily</t>
+        </is>
+      </c>
+      <c r="D524" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E524" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily@sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsign_acc</t>
+        </is>
+      </c>
+      <c r="C525" s="0" t="inlineStr">
+        <is>
+          <t>sign_acc</t>
+        </is>
+      </c>
+      <c r="D525" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E525" s="0" t="inlineStr">
+        <is>
+          <t>sign_acc@sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>config.Tbtask</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>task@task.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>config.Tbtask_type</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>task_type</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>task_type@task.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>config.Tbtask_group</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>task_group</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>task_group@task.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>config.Tbtask_score</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>task_score</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>task_score@task.xlsx</t>
         </is>
       </c>
     </row>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
       <selection activeCell="E487" sqref="A474:E487"/>
@@ -1163,6 +1163,28 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>config.TbPool</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pool</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pool@Shop.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
